--- a/calc/calc_result.xlsx
+++ b/calc/calc_result.xlsx
@@ -18,19 +18,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19831" uniqueCount="32">
   <si>
+    <t>メッシュ数(-)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水密度(kg/m3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PipeType 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PipeType 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PipeType 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算ステップ数(-)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水熱伝導率(W/mK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプ本数(-)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間刻み(s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水比熱(J/kgK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力損失(MPa)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプ長さ(m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水粘性(Pa・s)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプ外径(m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅熱伝導率(W/mK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプ内径(m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCM潜熱(J/kg)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCM初期厚み(m)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCM密度(kg/m3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水初期温度(℃)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ヌセルト数(-)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Pipe1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pipe2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pipe3</t>
+    <t>PCM温度(℃)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -38,79 +110,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>圧力損失(MPa)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銅熱伝導率(W/mK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パイプ本数(-)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重力加速度(m/s2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水比熱(J/kgK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パイプ外径(m)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算ステップ数(-)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッシュ数(-)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間刻み(s)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パイプ長さ(m)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PCM初期厚み(m)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水密度(kg/m3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水熱伝導率(W/mK)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水初期温度(℃)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PCM温度(℃)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PCM潜熱(J/kg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水粘性(Pa・s)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PCM密度(kg/m3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パイプ内径(m)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -447,210 +447,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="8.38" customWidth="1"/>
+    <col min="1" max="10" width="8.38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3.66</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1">
+        <v>998</v>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.602</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.01</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.00001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
         <v>0.172</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2555</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
         <v>9.80665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0.00001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0.602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -706,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.001103199492393</v>
+        <v>5.001100543593051</v>
       </c>
       <c r="C3">
-        <v>5.001103199492389</v>
+        <v>5.001100543593051</v>
       </c>
       <c r="D3">
-        <v>5.001103199492381</v>
+        <v>5.001100543593051</v>
       </c>
       <c r="E3">
-        <v>5.001103199492388</v>
+        <v>5.001100543593051</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -723,16 +705,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.002206311235225</v>
+        <v>5.002201000013723</v>
       </c>
       <c r="C4">
-        <v>5.002206311235211</v>
+        <v>5.002201000013723</v>
       </c>
       <c r="D4">
-        <v>5.002206311235188</v>
+        <v>5.002201000013723</v>
       </c>
       <c r="E4">
-        <v>5.002206311235206</v>
+        <v>5.002201000013723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -740,16 +722,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.003309335246973</v>
+        <v>5.003301369280301</v>
       </c>
       <c r="C5">
-        <v>5.003309335246962</v>
+        <v>5.003301369280301</v>
       </c>
       <c r="D5">
-        <v>5.003309335246932</v>
+        <v>5.003301369280301</v>
       </c>
       <c r="E5">
-        <v>5.003309335246954</v>
+        <v>5.003301369280302</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -757,16 +739,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.004412271546117</v>
+        <v>5.004401651411066</v>
       </c>
       <c r="C6">
-        <v>5.004412271546097</v>
+        <v>5.004401651411066</v>
       </c>
       <c r="D6">
-        <v>5.004412271546048</v>
+        <v>5.004401651411066</v>
       </c>
       <c r="E6">
-        <v>5.004412271546085</v>
+        <v>5.004401651411066</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -774,16 +756,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.0055151201511245</v>
+        <v>5.0055018464242815</v>
       </c>
       <c r="C7">
-        <v>5.005515120151088</v>
+        <v>5.0055018464242815</v>
       </c>
       <c r="D7">
-        <v>5.005515120151036</v>
+        <v>5.0055018464242815</v>
       </c>
       <c r="E7">
-        <v>5.005515120151075</v>
+        <v>5.0055018464242815</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -791,16 +773,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.006617881080453</v>
+        <v>5.006601954338204</v>
       </c>
       <c r="C8">
-        <v>5.006617881080409</v>
+        <v>5.006601954338204</v>
       </c>
       <c r="D8">
-        <v>5.006617881080383</v>
+        <v>5.006601954338204</v>
       </c>
       <c r="E8">
-        <v>5.006617881080403</v>
+        <v>5.006601954338204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -808,16 +790,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.007720554352571</v>
+        <v>5.007701975171096</v>
       </c>
       <c r="C9">
-        <v>5.007720554352517</v>
+        <v>5.007701975171096</v>
       </c>
       <c r="D9">
-        <v>5.0077205543525025</v>
+        <v>5.007701975171096</v>
       </c>
       <c r="E9">
-        <v>5.007720554352514</v>
+        <v>5.007701975171097</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -825,16 +807,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.008823139985928</v>
+        <v>5.008801908941202</v>
       </c>
       <c r="C10">
-        <v>5.008823139985886</v>
+        <v>5.008801908941202</v>
       </c>
       <c r="D10">
-        <v>5.008823139985882</v>
+        <v>5.008801908941202</v>
       </c>
       <c r="E10">
-        <v>5.008823139985886</v>
+        <v>5.008801908941202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -842,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.009925637998971</v>
+        <v>5.00990175566676</v>
       </c>
       <c r="C11">
-        <v>5.00992563799893</v>
+        <v>5.00990175566676</v>
       </c>
       <c r="D11">
-        <v>5.009925637998901</v>
+        <v>5.00990175566676</v>
       </c>
       <c r="E11">
-        <v>5.009925637998923</v>
+        <v>5.00990175566676</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -859,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.011028048410135</v>
+        <v>5.011001515366009</v>
       </c>
       <c r="C12">
-        <v>5.011028048410104</v>
+        <v>5.011001515366009</v>
       </c>
       <c r="D12">
-        <v>5.011028048410078</v>
+        <v>5.011001515366009</v>
       </c>
       <c r="E12">
-        <v>5.011028048410098</v>
+        <v>5.011001515366009</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -876,16 +858,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.012130371237849</v>
+        <v>5.01210118805718</v>
       </c>
       <c r="C13">
-        <v>5.012130371237835</v>
+        <v>5.01210118805718</v>
       </c>
       <c r="D13">
-        <v>5.012130371237787</v>
+        <v>5.01210118805718</v>
       </c>
       <c r="E13">
-        <v>5.012130371237822</v>
+        <v>5.01210118805718</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -893,16 +875,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.013232606500542</v>
+        <v>5.013200773758488</v>
       </c>
       <c r="C14">
-        <v>5.013232606500526</v>
+        <v>5.013200773758488</v>
       </c>
       <c r="D14">
-        <v>5.013232606500488</v>
+        <v>5.013200773758488</v>
       </c>
       <c r="E14">
-        <v>5.013232606500516</v>
+        <v>5.013200773758488</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -910,16 +892,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.014334754216631</v>
+        <v>5.014300272488161</v>
       </c>
       <c r="C15">
-        <v>5.0143347542166055</v>
+        <v>5.014300272488161</v>
       </c>
       <c r="D15">
-        <v>5.014334754216602</v>
+        <v>5.014300272488161</v>
       </c>
       <c r="E15">
-        <v>5.0143347542166055</v>
+        <v>5.014300272488161</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -927,16 +909,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.015436814404533</v>
+        <v>5.015399684264401</v>
       </c>
       <c r="C16">
-        <v>5.015436814404491</v>
+        <v>5.015399684264401</v>
       </c>
       <c r="D16">
-        <v>5.015436814404502</v>
+        <v>5.015399684264401</v>
       </c>
       <c r="E16">
-        <v>5.015436814404494</v>
+        <v>5.015399684264401</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -944,16 +926,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.0165387870826414</v>
+        <v>5.016499009105427</v>
       </c>
       <c r="C17">
-        <v>5.016538787082591</v>
+        <v>5.016499009105427</v>
       </c>
       <c r="D17">
-        <v>5.016538787082625</v>
+        <v>5.016499009105427</v>
       </c>
       <c r="E17">
-        <v>5.0165387870826015</v>
+        <v>5.016499009105426</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -961,16 +943,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.017640672269365</v>
+        <v>5.017598247029411</v>
       </c>
       <c r="C18">
-        <v>5.017640672269304</v>
+        <v>5.017598247029411</v>
       </c>
       <c r="D18">
-        <v>5.017640672269368</v>
+        <v>5.017598247029411</v>
       </c>
       <c r="E18">
-        <v>5.017640672269323</v>
+        <v>5.017598247029411</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -978,16 +960,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.018742469983095</v>
+        <v>5.018697398054555</v>
       </c>
       <c r="C19">
-        <v>5.018742469983043</v>
+        <v>5.018697398054555</v>
       </c>
       <c r="D19">
-        <v>5.018742469983111</v>
+        <v>5.018697398054555</v>
       </c>
       <c r="E19">
-        <v>5.018742469983063</v>
+        <v>5.018697398054554</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -995,16 +977,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.0198441802422185</v>
+        <v>5.0197964621990545</v>
       </c>
       <c r="C20">
-        <v>5.019844180242155</v>
+        <v>5.0197964621990545</v>
       </c>
       <c r="D20">
-        <v>5.019844180242238</v>
+        <v>5.0197964621990545</v>
       </c>
       <c r="E20">
-        <v>5.019844180242179</v>
+        <v>5.0197964621990545</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1012,16 +994,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.020945803065115</v>
+        <v>5.020895439481065</v>
       </c>
       <c r="C21">
-        <v>5.020945803065054</v>
+        <v>5.020895439481065</v>
       </c>
       <c r="D21">
-        <v>5.020945803065114</v>
+        <v>5.020895439481065</v>
       </c>
       <c r="E21">
-        <v>5.0209458030650715</v>
+        <v>5.020895439481065</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1029,16 +1011,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.0220473384701565</v>
+        <v>5.0219943299187735</v>
       </c>
       <c r="C22">
-        <v>5.022047338470104</v>
+        <v>5.0219943299187735</v>
       </c>
       <c r="D22">
-        <v>5.022047338470142</v>
+        <v>5.0219943299187735</v>
       </c>
       <c r="E22">
-        <v>5.022047338470115</v>
+        <v>5.0219943299187735</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1046,16 +1028,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.0231487864757165</v>
+        <v>5.023093133530349</v>
       </c>
       <c r="C23">
-        <v>5.023148786475659</v>
+        <v>5.023093133530349</v>
       </c>
       <c r="D23">
-        <v>5.023148786475719</v>
+        <v>5.023093133530349</v>
       </c>
       <c r="E23">
-        <v>5.023148786475677</v>
+        <v>5.023093133530349</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1063,16 +1045,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.024250147100143</v>
+        <v>5.024191850333932</v>
       </c>
       <c r="C24">
-        <v>5.0242501471000836</v>
+        <v>5.024191850333932</v>
       </c>
       <c r="D24">
-        <v>5.024250147100115</v>
+        <v>5.024191850333932</v>
       </c>
       <c r="E24">
-        <v>5.024250147100093</v>
+        <v>5.024191850333932</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1080,16 +1062,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.025351420361789</v>
+        <v>5.025290480347688</v>
       </c>
       <c r="C25">
-        <v>5.025351420361744</v>
+        <v>5.025290480347688</v>
       </c>
       <c r="D25">
-        <v>5.025351420361749</v>
+        <v>5.025290480347688</v>
       </c>
       <c r="E25">
-        <v>5.025351420361746</v>
+        <v>5.025290480347689</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1097,16 +1079,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.026452606279011</v>
+        <v>5.026389023589752</v>
       </c>
       <c r="C26">
-        <v>5.026452606278961</v>
+        <v>5.026389023589752</v>
       </c>
       <c r="D26">
-        <v>5.0264526062789985</v>
+        <v>5.026389023589752</v>
       </c>
       <c r="E26">
-        <v>5.026452606278973</v>
+        <v>5.026389023589752</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1114,16 +1096,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.027553704870141</v>
+        <v>5.027487480078279</v>
       </c>
       <c r="C27">
-        <v>5.02755370487009</v>
+        <v>5.027487480078279</v>
       </c>
       <c r="D27">
-        <v>5.0275537048701375</v>
+        <v>5.027487480078279</v>
       </c>
       <c r="E27">
-        <v>5.027553704870104</v>
+        <v>5.02748748007828</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1131,16 +1113,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.028654716153518</v>
+        <v>5.028585849831387</v>
       </c>
       <c r="C28">
-        <v>5.02865471615346</v>
+        <v>5.028585849831387</v>
       </c>
       <c r="D28">
-        <v>5.028654716153544</v>
+        <v>5.028585849831387</v>
       </c>
       <c r="E28">
-        <v>5.028654716153484</v>
+        <v>5.028585849831387</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1148,16 +1130,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.029755640147463</v>
+        <v>5.029684132867202</v>
       </c>
       <c r="C29">
-        <v>5.029755640147421</v>
+        <v>5.029684132867202</v>
       </c>
       <c r="D29">
-        <v>5.029755640147509</v>
+        <v>5.029684132867202</v>
       </c>
       <c r="E29">
-        <v>5.029755640147446</v>
+        <v>5.029684132867202</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1165,16 +1147,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.030856476870308</v>
+        <v>5.03078232920386</v>
       </c>
       <c r="C30">
-        <v>5.030856476870271</v>
+        <v>5.03078232920386</v>
       </c>
       <c r="D30">
-        <v>5.03085647687033</v>
+        <v>5.03078232920386</v>
       </c>
       <c r="E30">
-        <v>5.030856476870288</v>
+        <v>5.03078232920386</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1182,16 +1164,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.031957226340357</v>
+        <v>5.031880438859457</v>
       </c>
       <c r="C31">
-        <v>5.031957226340316</v>
+        <v>5.031880438859457</v>
       </c>
       <c r="D31">
-        <v>5.031957226340381</v>
+        <v>5.031880438859457</v>
       </c>
       <c r="E31">
-        <v>5.031957226340335</v>
+        <v>5.031880438859457</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1199,16 +1181,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.0330578885759225</v>
+        <v>5.032978461852108</v>
       </c>
       <c r="C32">
-        <v>5.0330578885758825</v>
+        <v>5.032978461852108</v>
       </c>
       <c r="D32">
-        <v>5.033057888575963</v>
+        <v>5.032978461852108</v>
       </c>
       <c r="E32">
-        <v>5.033057888575906</v>
+        <v>5.0329784618521085</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1216,16 +1198,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.034158463595312</v>
+        <v>5.034076398199912</v>
       </c>
       <c r="C33">
-        <v>5.03415846359526</v>
+        <v>5.034076398199912</v>
       </c>
       <c r="D33">
-        <v>5.034158463595355</v>
+        <v>5.034076398199912</v>
       </c>
       <c r="E33">
-        <v>5.034158463595287</v>
+        <v>5.034076398199913</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1233,16 +1215,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.03525895141681</v>
+        <v>5.035174247920974</v>
       </c>
       <c r="C34">
-        <v>5.035258951416749</v>
+        <v>5.035174247920974</v>
       </c>
       <c r="D34">
-        <v>5.035258951416858</v>
+        <v>5.035174247920974</v>
       </c>
       <c r="E34">
-        <v>5.035258951416781</v>
+        <v>5.035174247920974</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1250,16 +1232,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.0363593520587</v>
+        <v>5.03627201103336</v>
       </c>
       <c r="C35">
-        <v>5.036359352058642</v>
+        <v>5.03627201103336</v>
       </c>
       <c r="D35">
-        <v>5.03635935205877</v>
+        <v>5.03627201103336</v>
       </c>
       <c r="E35">
-        <v>5.036359352058679</v>
+        <v>5.03627201103336</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1267,16 +1249,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.037459665539275</v>
+        <v>5.03736968755517</v>
       </c>
       <c r="C36">
-        <v>5.03745966553921</v>
+        <v>5.03736968755517</v>
       </c>
       <c r="D36">
-        <v>5.037459665539327</v>
+        <v>5.03736968755517</v>
       </c>
       <c r="E36">
-        <v>5.037459665539243</v>
+        <v>5.037369687555171</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1284,16 +1266,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5.03855989187681</v>
+        <v>5.038467277504473</v>
       </c>
       <c r="C37">
-        <v>5.038559891876763</v>
+        <v>5.038467277504473</v>
       </c>
       <c r="D37">
-        <v>5.038559891876865</v>
+        <v>5.038467277504473</v>
       </c>
       <c r="E37">
-        <v>5.038559891876792</v>
+        <v>5.0384672775044725</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1301,16 +1283,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5.039660031089575</v>
+        <v>5.039564780899338</v>
       </c>
       <c r="C38">
-        <v>5.039660031089539</v>
+        <v>5.039564780899338</v>
       </c>
       <c r="D38">
-        <v>5.039660031089615</v>
+        <v>5.039564780899338</v>
       </c>
       <c r="E38">
-        <v>5.039660031089562</v>
+        <v>5.039564780899338</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1318,16 +1300,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.040760083195833</v>
+        <v>5.040662197757836</v>
       </c>
       <c r="C39">
-        <v>5.040760083195801</v>
+        <v>5.040662197757836</v>
       </c>
       <c r="D39">
-        <v>5.040760083195862</v>
+        <v>5.040662197757836</v>
       </c>
       <c r="E39">
-        <v>5.040760083195819</v>
+        <v>5.040662197757837</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1335,16 +1317,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.041860048213832</v>
+        <v>5.041759528098002</v>
       </c>
       <c r="C40">
-        <v>5.041860048213813</v>
+        <v>5.041759528098002</v>
       </c>
       <c r="D40">
-        <v>5.041860048213863</v>
+        <v>5.041759528098002</v>
       </c>
       <c r="E40">
-        <v>5.041860048213827</v>
+        <v>5.041759528098001</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1352,16 +1334,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.042959926161828</v>
+        <v>5.042856771937903</v>
       </c>
       <c r="C41">
-        <v>5.042959926161821</v>
+        <v>5.042856771937903</v>
       </c>
       <c r="D41">
-        <v>5.042959926161881</v>
+        <v>5.042856771937903</v>
       </c>
       <c r="E41">
-        <v>5.0429599261618385</v>
+        <v>5.042856771937903</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1369,16 +1351,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.044059717058064</v>
+        <v>5.04395392929558</v>
       </c>
       <c r="C42">
-        <v>5.044059717058059</v>
+        <v>5.04395392929558</v>
       </c>
       <c r="D42">
-        <v>5.044059717058094</v>
+        <v>5.04395392929558</v>
       </c>
       <c r="E42">
-        <v>5.044059717058069</v>
+        <v>5.043953929295579</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1386,16 +1368,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.045159420920773</v>
+        <v>5.0450510001890745</v>
       </c>
       <c r="C43">
-        <v>5.045159420920773</v>
+        <v>5.0450510001890745</v>
       </c>
       <c r="D43">
-        <v>5.045159420920804</v>
+        <v>5.0450510001890745</v>
       </c>
       <c r="E43">
-        <v>5.045159420920782</v>
+        <v>5.045051000189075</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1403,16 +1385,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.04625903776819</v>
+        <v>5.046147984636411</v>
       </c>
       <c r="C44">
-        <v>5.046259037768192</v>
+        <v>5.046147984636411</v>
       </c>
       <c r="D44">
-        <v>5.04625903776819</v>
+        <v>5.046147984636411</v>
       </c>
       <c r="E44">
-        <v>5.046259037768192</v>
+        <v>5.046147984636411</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1420,16 +1402,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5.047358567618533</v>
+        <v>5.047244882655609</v>
       </c>
       <c r="C45">
-        <v>5.047358567618538</v>
+        <v>5.047244882655609</v>
       </c>
       <c r="D45">
-        <v>5.047358567618521</v>
+        <v>5.047244882655609</v>
       </c>
       <c r="E45">
-        <v>5.0473585676185335</v>
+        <v>5.047244882655609</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1437,16 +1419,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.048458010490031</v>
+        <v>5.048341694264698</v>
       </c>
       <c r="C46">
-        <v>5.048458010490035</v>
+        <v>5.048341694264698</v>
       </c>
       <c r="D46">
-        <v>5.048458010489999</v>
+        <v>5.048341694264698</v>
       </c>
       <c r="E46">
-        <v>5.048458010490025</v>
+        <v>5.048341694264697</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1454,16 +1436,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5.04955736640088</v>
+        <v>5.049438419481676</v>
       </c>
       <c r="C47">
-        <v>5.049557366400897</v>
+        <v>5.049438419481676</v>
       </c>
       <c r="D47">
-        <v>5.049557366400872</v>
+        <v>5.049438419481676</v>
       </c>
       <c r="E47">
-        <v>5.04955736640089</v>
+        <v>5.0494384194816755</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1471,16 +1453,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.050656635369296</v>
+        <v>5.050535058324555</v>
       </c>
       <c r="C48">
-        <v>5.050656635369326</v>
+        <v>5.050535058324555</v>
       </c>
       <c r="D48">
-        <v>5.050656635369286</v>
+        <v>5.050535058324555</v>
       </c>
       <c r="E48">
-        <v>5.050656635369315</v>
+        <v>5.050535058324554</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1488,16 +1470,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.051755817413467</v>
+        <v>5.051631610811339</v>
       </c>
       <c r="C49">
-        <v>5.0517558174135</v>
+        <v>5.051631610811339</v>
       </c>
       <c r="D49">
-        <v>5.051755817413483</v>
+        <v>5.051631610811339</v>
       </c>
       <c r="E49">
-        <v>5.051755817413495</v>
+        <v>5.051631610811339</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1505,16 +1487,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.05285491255159</v>
+        <v>5.052728076960012</v>
       </c>
       <c r="C50">
-        <v>5.052854912551642</v>
+        <v>5.052728076960012</v>
       </c>
       <c r="D50">
-        <v>5.052854912551609</v>
+        <v>5.052728076960012</v>
       </c>
       <c r="E50">
-        <v>5.052854912551633</v>
+        <v>5.052728076960011</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1522,16 +1504,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.053953920801858</v>
+        <v>5.053824456788565</v>
       </c>
       <c r="C51">
-        <v>5.053953920801895</v>
+        <v>5.053824456788565</v>
       </c>
       <c r="D51">
-        <v>5.053953920801874</v>
+        <v>5.053824456788565</v>
       </c>
       <c r="E51">
-        <v>5.05395392080189</v>
+        <v>5.053824456788564</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1539,16 +1521,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-11888377660377354000000000000</v>
+        <v>-11859785961345403000000000000</v>
       </c>
       <c r="C52">
-        <v>-13385123300320290000000000000000000000000000</v>
+        <v>-11859785961345403000000000000</v>
       </c>
       <c r="D52">
-        <v>-15070309076916315000000000000000000000000000000000000000000</v>
+        <v>-11859785961345403000000000000</v>
       </c>
       <c r="E52">
-        <v>-4209583541038086600000000000000000000000000000000000000000</v>
+        <v>-11859785961345403000000000000</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -85706,10 +85688,10 @@
         <v>12.525050100200401</v>
       </c>
       <c r="C1">
-        <v>25.050100200400802</v>
+        <v>12.525050100200401</v>
       </c>
       <c r="D1">
-        <v>50.100200400801604</v>
+        <v>12.525050100200401</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -85720,10 +85702,10 @@
         <v>0.62625250501002</v>
       </c>
       <c r="C2">
-        <v>1.25250501002004</v>
+        <v>0.62625250501002</v>
       </c>
       <c r="D2">
-        <v>2.50501002004008</v>
+        <v>0.62625250501002</v>
       </c>
     </row>
   </sheetData>
